--- a/database/Database Design.xlsx
+++ b/database/Database Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\C-Station\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3826980F-F5DA-43E8-A801-0F56E0F8E555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45269062-DEA1-419E-A0F1-F5E1CC99701D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="3276" windowWidth="17280" windowHeight="9420" xr2:uid="{2A02920E-B169-4333-8349-53AD5F96D906}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2A02920E-B169-4333-8349-53AD5F96D906}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,12 +412,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156BEE0B-48C3-47E7-90D0-78F3A8D5915D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/Database Design.xlsx
+++ b/database/Database Design.xlsx
@@ -1,45 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\C-Station\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45269062-DEA1-419E-A0F1-F5E1CC99701D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715606F-5821-4E74-8997-F485BE09E0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2A02920E-B169-4333-8349-53AD5F96D906}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+  <si>
+    <t>视频类别表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,6 +40,330 @@
   </si>
   <si>
     <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频流量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喜欢数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频类别id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频状态表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子视频表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍后在看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我追的番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员类型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fans_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,25 +375,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,20 +423,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,44 +458,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -213,9 +545,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -271,178 +603,659 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156BEE0B-48C3-47E7-90D0-78F3A8D5915D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>3001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3003</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3004</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3005</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I30" t="s">
         <v>5</v>
       </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/Database Design.xlsx
+++ b/database/Database Design.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="126">
   <si>
     <t>UID</t>
   </si>
@@ -90,6 +88,60 @@
     <t>signature</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户等级表</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>history_id</t>
+  </si>
+  <si>
+    <t>user_type_num</t>
+  </si>
+  <si>
+    <t>历史记录id</t>
+  </si>
+  <si>
+    <t>用户类型编号</t>
+  </si>
+  <si>
+    <t>用户安全</t>
+  </si>
+  <si>
+    <t>实名表</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密保问题</t>
+  </si>
+  <si>
+    <t>实名id</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
     <t>grade</t>
   </si>
   <si>
@@ -111,9 +163,6 @@
     <t>level_exp</t>
   </si>
   <si>
-    <t>用户ID</t>
-  </si>
-  <si>
     <t>C币数</t>
   </si>
   <si>
@@ -126,129 +175,150 @@
     <t>粉丝数</t>
   </si>
   <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>用户信息表</t>
-  </si>
-  <si>
-    <t>UserInfo</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>history_id</t>
-  </si>
-  <si>
-    <t>user_type_num</t>
-  </si>
-  <si>
-    <t>历史记录id</t>
-  </si>
-  <si>
-    <t>用户类型编号</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>视频id</t>
+  </si>
+  <si>
+    <t>观看时间</t>
+  </si>
+  <si>
+    <t>观看时长</t>
+  </si>
+  <si>
+    <t>收藏夹id</t>
+  </si>
+  <si>
+    <t>收藏夹标题</t>
+  </si>
+  <si>
+    <t>收藏日期</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>大会员</t>
+  </si>
+  <si>
+    <t>封禁账号</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>违规id</t>
+  </si>
+  <si>
+    <t>封禁时间</t>
+  </si>
+  <si>
+    <t>黑名单</t>
+  </si>
+  <si>
+    <t>每日任务状态</t>
+  </si>
+  <si>
+    <t>账号安全模块</t>
+  </si>
+  <si>
+    <t>充值系统</t>
+  </si>
+  <si>
+    <t>实名信息</t>
+  </si>
+  <si>
+    <t>邀请码记录</t>
+  </si>
+  <si>
+    <t>会员积分</t>
+  </si>
+  <si>
+    <t>空间背景</t>
   </si>
   <si>
     <t>用户类型规则</t>
   </si>
   <si>
+    <t>登录记录、信息等</t>
+  </si>
+  <si>
+    <t>交易记录</t>
+  </si>
+  <si>
+    <t>牵扯承包番剧</t>
+  </si>
+  <si>
     <t xml:space="preserve">privilege </t>
   </si>
   <si>
-    <t>用户id</t>
-  </si>
-  <si>
     <t>权限</t>
   </si>
   <si>
+    <t>管理员表</t>
+  </si>
+  <si>
     <t>普通</t>
   </si>
   <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>用户类型id</t>
+  </si>
+  <si>
     <t>会员</t>
   </si>
   <si>
-    <t>大会员</t>
+    <t>视频信息表</t>
+  </si>
+  <si>
+    <t>视频数</t>
+  </si>
+  <si>
+    <t>视频类别id</t>
+  </si>
+  <si>
+    <t>视频标题</t>
+  </si>
+  <si>
+    <t>视频简介</t>
+  </si>
+  <si>
+    <t>封面地址</t>
+  </si>
+  <si>
+    <t>视频状态</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>审核id</t>
+  </si>
+  <si>
+    <t>管理员类型表</t>
   </si>
   <si>
     <t>管理员</t>
   </si>
   <si>
+    <t>审核君</t>
+  </si>
+  <si>
     <t>风纪委员</t>
   </si>
   <si>
+    <t>视频流量表</t>
+  </si>
+  <si>
     <t>已封禁</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>视频id</t>
-  </si>
-  <si>
-    <t>观看时间</t>
-  </si>
-  <si>
-    <t>观看时长</t>
-  </si>
-  <si>
-    <t>收藏夹id</t>
-  </si>
-  <si>
-    <t>收藏夹标题</t>
-  </si>
-  <si>
-    <t>收藏日期</t>
-  </si>
-  <si>
-    <t>bv_id</t>
-  </si>
-  <si>
-    <t>视频信息表</t>
-  </si>
-  <si>
-    <t>视频数</t>
-  </si>
-  <si>
-    <t>视频类别id</t>
-  </si>
-  <si>
-    <t>视频标题</t>
-  </si>
-  <si>
-    <t>视频简介</t>
-  </si>
-  <si>
-    <t>封面地址</t>
-  </si>
-  <si>
-    <t>视频状态</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>审核id</t>
-  </si>
-  <si>
-    <t>视频流量表</t>
-  </si>
-  <si>
     <t>点赞数</t>
   </si>
   <si>
@@ -279,21 +349,6 @@
     <t>视频地址</t>
   </si>
   <si>
-    <t>管理员表</t>
-  </si>
-  <si>
-    <t>AID</t>
-  </si>
-  <si>
-    <t>用户类型id</t>
-  </si>
-  <si>
-    <t>管理员类型表</t>
-  </si>
-  <si>
-    <t>审核君</t>
-  </si>
-  <si>
     <t>视频类别表</t>
   </si>
   <si>
@@ -322,18 +377,6 @@
   </si>
   <si>
     <t>发布状态</t>
-  </si>
-  <si>
-    <t>封禁账号</t>
-  </si>
-  <si>
-    <t>Uid</t>
-  </si>
-  <si>
-    <t>违规id</t>
-  </si>
-  <si>
-    <t>封禁时间</t>
   </si>
   <si>
     <t>违规信息</t>
@@ -356,10 +399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -370,8 +413,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -385,91 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,19 +527,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,14 +557,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,18 +586,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,175 +652,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +783,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,26 +828,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,26 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -845,169 +868,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1356,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K71"/>
+  <dimension ref="A2:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="K18" sqref="K17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1367,12 +1402,15 @@
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.55" customWidth="1"/>
     <col min="3" max="3" width="14.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.3166666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="14.3083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.55" customWidth="1"/>
     <col min="7" max="7" width="10.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="13.7083333333333" customWidth="1"/>
     <col min="9" max="9" width="12.1083333333333" customWidth="1"/>
     <col min="10" max="10" width="11.4583333333333" customWidth="1"/>
     <col min="11" max="11" width="9.99166666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.90833333333333" customWidth="1"/>
     <col min="13" max="13" width="10.1666666666667" customWidth="1"/>
     <col min="14" max="14" width="12.4916666666667" customWidth="1"/>
     <col min="15" max="15" width="12.4083333333333" customWidth="1"/>
@@ -1439,7 +1477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1450,13 +1488,8 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1475,25 +1508,10 @@
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1505,100 +1523,51 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1607,82 +1576,117 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="L13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="9:15">
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="23" spans="9:15">
+      <c r="I23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="K23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="M23" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="N23" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>201</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>301</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>401</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>501</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>601</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
+      <c r="O23" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1692,16 +1696,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1709,292 +1713,392 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
       <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
+      <c r="F28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="K39" t="s">
         <v>67</v>
       </c>
-      <c r="D34" t="s">
+      <c r="L39" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="M39" t="s">
         <v>69</v>
       </c>
-      <c r="F34" t="s">
+      <c r="N39" t="s">
         <v>70</v>
       </c>
-      <c r="G34" t="s">
+      <c r="O39" t="s">
         <v>71</v>
       </c>
-      <c r="H34" t="s">
+      <c r="P39" t="s">
         <v>72</v>
       </c>
-      <c r="I34" t="s">
+      <c r="Q39" t="s">
         <v>73</v>
       </c>
-      <c r="J34" t="s">
+    </row>
+    <row r="40" spans="5:16">
+      <c r="E40" t="s">
         <v>74</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="M40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="P40" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>78</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
         <v>79</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="G37" t="s">
+      <c r="E43">
+        <v>101</v>
+      </c>
+      <c r="G43" t="s">
         <v>81</v>
       </c>
-      <c r="H37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="K37" t="s">
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>201</v>
+      </c>
+      <c r="G44" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="J44" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="45" spans="5:20">
+      <c r="E45">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" t="s">
         <v>86</v>
       </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="M45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="N45" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="O45" t="s">
         <v>89</v>
       </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>91</v>
+      </c>
+      <c r="R45" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" t="s">
+        <v>93</v>
+      </c>
+      <c r="T45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>401</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47">
+        <v>501</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="5:20">
+      <c r="E48">
+        <v>601</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" t="s">
+        <v>93</v>
+      </c>
+      <c r="S48" t="s">
+        <v>106</v>
+      </c>
+      <c r="T48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" t="s">
+        <v>109</v>
+      </c>
+      <c r="M51" t="s">
+        <v>110</v>
+      </c>
+      <c r="N51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="O51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="P51" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
+      <c r="Q51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="53" spans="10:10">
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" t="s">
+        <v>112</v>
+      </c>
+      <c r="K54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55">
         <v>1001</v>
       </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
+      <c r="K55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59">
         <v>3001</v>
       </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+      <c r="K59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60">
         <v>3002</v>
       </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
+      <c r="K60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61">
         <v>3003</v>
       </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
+      <c r="K61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62">
         <v>3004</v>
       </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="K62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63">
         <v>3005</v>
       </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" t="s">
-        <v>105</v>
+      <c r="K63" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -2007,13 +2111,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -2027,36 +2131,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>